--- a/8/4/Títulos de deuda con apertura por mercado de emisión 2013 a 2021 - Trimestral.xlsx
+++ b/8/4/Títulos de deuda con apertura por mercado de emisión 2013 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>Serie</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -500,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V34"/>
+  <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2773,31 +2776,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>12481</v>
+        <v>12484</v>
       </c>
       <c r="I34">
         <v>2</v>
       </c>
       <c r="J34">
-        <v>12479</v>
+        <v>12483</v>
       </c>
       <c r="K34">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="L34">
         <v>36</v>
       </c>
       <c r="M34">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="N34">
-        <v>47923</v>
+        <v>47915</v>
       </c>
       <c r="O34">
         <v>0</v>
       </c>
       <c r="P34">
-        <v>47923</v>
+        <v>47915</v>
       </c>
       <c r="Q34">
         <v>206</v>
@@ -2809,13 +2812,81 @@
         <v>206</v>
       </c>
       <c r="T34">
-        <v>94321</v>
+        <v>94308</v>
       </c>
       <c r="U34">
         <v>8819</v>
       </c>
       <c r="V34">
-        <v>85502</v>
+        <v>85490</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>36834</v>
+      </c>
+      <c r="C35">
+        <v>8807</v>
+      </c>
+      <c r="D35">
+        <v>28027</v>
+      </c>
+      <c r="E35">
+        <v>12</v>
+      </c>
+      <c r="F35">
+        <v>12</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>12328</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>12328</v>
+      </c>
+      <c r="K35">
+        <v>683</v>
+      </c>
+      <c r="L35">
+        <v>36</v>
+      </c>
+      <c r="M35">
+        <v>648</v>
+      </c>
+      <c r="N35">
+        <v>49620</v>
+      </c>
+      <c r="O35">
+        <v>2</v>
+      </c>
+      <c r="P35">
+        <v>49618</v>
+      </c>
+      <c r="Q35">
+        <v>209</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>209</v>
+      </c>
+      <c r="T35">
+        <v>99687</v>
+      </c>
+      <c r="U35">
+        <v>8857</v>
+      </c>
+      <c r="V35">
+        <v>90830</v>
       </c>
     </row>
   </sheetData>

--- a/8/4/Títulos de deuda con apertura por mercado de emisión 2013 a 2021 - Trimestral.xlsx
+++ b/8/4/Títulos de deuda con apertura por mercado de emisión 2013 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>Serie</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -503,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V35"/>
+  <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2889,6 +2892,74 @@
         <v>90830</v>
       </c>
     </row>
+    <row r="36" spans="1:22">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>43243</v>
+      </c>
+      <c r="C36">
+        <v>9032</v>
+      </c>
+      <c r="D36">
+        <v>34211</v>
+      </c>
+      <c r="E36">
+        <v>10</v>
+      </c>
+      <c r="F36">
+        <v>10</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>13268</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>13268</v>
+      </c>
+      <c r="K36">
+        <v>697</v>
+      </c>
+      <c r="L36">
+        <v>53</v>
+      </c>
+      <c r="M36">
+        <v>644</v>
+      </c>
+      <c r="N36">
+        <v>54856</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>54855</v>
+      </c>
+      <c r="Q36">
+        <v>204</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>204</v>
+      </c>
+      <c r="T36">
+        <v>112279</v>
+      </c>
+      <c r="U36">
+        <v>9097</v>
+      </c>
+      <c r="V36">
+        <v>103181</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
